--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461311.9435822136</v>
+        <v>408073.1573279944</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12543988.80714599</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7750215.265937855</v>
+        <v>7622616.185043053</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9104710.737709353</v>
+        <v>9171228.953297561</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146.8461210887091</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>129.3420634549349</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>146.8461210887091</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="Y2" t="n">
-        <v>146.8461210887091</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="3">
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>29.52120010878443</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>146.8461210887091</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>146.8461210887091</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>101.5977720414757</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>138.261311358952</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="4">
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>146.8461210887091</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.26728063243431</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.07357741546441</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.838436914953959</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>165.1725371760943</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>20.55555711582394</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>108.7865063391106</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>146.8461210887086</v>
+        <v>165.1725371760946</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S6" t="n">
-        <v>129.3420634549345</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W6" t="n">
-        <v>146.8461210887086</v>
+        <v>138.2613113589522</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146.8461210887086</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>129.3420634549346</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>161.8294550022489</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X7" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y7" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V8" t="n">
-        <v>153.8072380324131</v>
+        <v>6.396723986041319</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663199</v>
+        <v>66.76409028568918</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>26.39608472807597</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845801</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>161.8294550022487</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="T10" t="n">
-        <v>187.5255871663199</v>
+        <v>29.00708539155826</v>
       </c>
       <c r="U10" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>339.9213549172193</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>201.6086852141634</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>28.20584125154398</v>
       </c>
       <c r="D13" t="n">
-        <v>106.5867442799587</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>76.81450234612061</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>48.26361229938058</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492336</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>81.72898226868486</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>329.7178095648362</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>201.6622187863191</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9.832771274810389</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486467</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>131.6288405190999</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>136.0870494265625</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.08755831089487287</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>313.0738748972975</v>
+        <v>61.29257748216965</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2374,10 +2374,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>149.5516258167721</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>356.5788332184732</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>131.9809553984389</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>18.26879610204007</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744748</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>128.6259131879034</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>201.6622187863191</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>79.49505480544779</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>96.68310641755605</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>270.3362166071149</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3082,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>223.7580339747556</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>28.20584125154446</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>190.0168339602226</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>184.1477353216921</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>90.41948680756566</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>177.606538748304</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>46.42246812243229</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>7.601081015447462</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>13.02719212039654</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>330.2893621157971</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>229.7965692041383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>29.05592156403785</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>96.31572829406701</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>229.796569204138</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>188.9524625330061</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>74.75769145492379</v>
+        <v>17.41027617551705</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.74768968709673</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C2" t="n">
-        <v>11.74768968709673</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D2" t="n">
-        <v>11.74768968709673</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E2" t="n">
-        <v>11.74768968709673</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F2" t="n">
-        <v>11.74768968709673</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G2" t="n">
-        <v>11.74768968709673</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H2" t="n">
-        <v>11.74768968709673</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
-        <v>11.74768968709673</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
-        <v>11.74768968709673</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K2" t="n">
-        <v>53.1018177918305</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L2" t="n">
-        <v>141.3070323458401</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M2" t="n">
-        <v>271.1217663066263</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>407.6508467588573</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>523.236124673532</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>587.3844843548363</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q2" t="n">
-        <v>587.3844843548363</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R2" t="n">
-        <v>587.3844843548363</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S2" t="n">
-        <v>587.3844843548363</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T2" t="n">
-        <v>456.7359354104576</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U2" t="n">
-        <v>308.4065201693373</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="V2" t="n">
-        <v>308.4065201693373</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="W2" t="n">
-        <v>308.4065201693373</v>
+        <v>560.6825636487943</v>
       </c>
       <c r="X2" t="n">
-        <v>308.4065201693373</v>
+        <v>371.2627786323097</v>
       </c>
       <c r="Y2" t="n">
-        <v>160.077104928217</v>
+        <v>181.8429936158251</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>587.3844843548363</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C3" t="n">
-        <v>557.5650903055591</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D3" t="n">
-        <v>409.2356750644389</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E3" t="n">
-        <v>260.9062598233185</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F3" t="n">
-        <v>114.3717018502035</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G3" t="n">
-        <v>114.3717018502035</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H3" t="n">
-        <v>11.74768968709673</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I3" t="n">
-        <v>11.74768968709673</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
-        <v>11.74768968709673</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>51.36582106616838</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5663946836093</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>248.1447726172899</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>393.5224324951119</v>
+        <v>512.5000587546594</v>
       </c>
       <c r="O3" t="n">
-        <v>511.7941057756109</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P3" t="n">
-        <v>587.3844843548363</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q3" t="n">
-        <v>587.3844843548363</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R3" t="n">
-        <v>587.3844843548363</v>
+        <v>722.919292284327</v>
       </c>
       <c r="S3" t="n">
-        <v>587.3844843548363</v>
+        <v>722.919292284327</v>
       </c>
       <c r="T3" t="n">
-        <v>587.3844843548363</v>
+        <v>583.2614020227593</v>
       </c>
       <c r="U3" t="n">
-        <v>587.3844843548363</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="V3" t="n">
-        <v>587.3844843548363</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="W3" t="n">
-        <v>587.3844843548363</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="X3" t="n">
-        <v>587.3844843548363</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="Y3" t="n">
-        <v>587.3844843548363</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>578.4567702993273</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C4" t="n">
-        <v>578.4567702993273</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D4" t="n">
-        <v>578.4567702993273</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E4" t="n">
-        <v>430.5436767169342</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F4" t="n">
-        <v>283.6537292190238</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G4" t="n">
-        <v>135.3243139779035</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H4" t="n">
-        <v>40.10483859160624</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I4" t="n">
-        <v>40.10483859160624</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J4" t="n">
-        <v>11.74768968709673</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K4" t="n">
-        <v>95.91234996042014</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L4" t="n">
-        <v>241.2900098382422</v>
+        <v>279.6026869745582</v>
       </c>
       <c r="M4" t="n">
-        <v>386.6676697160642</v>
+        <v>447.3950989318182</v>
       </c>
       <c r="N4" t="n">
-        <v>532.0453295938862</v>
+        <v>633.0454302264748</v>
       </c>
       <c r="O4" t="n">
-        <v>587.3844843548363</v>
+        <v>634.3723839608012</v>
       </c>
       <c r="P4" t="n">
-        <v>587.3844843548363</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Q4" t="n">
-        <v>578.4567702993273</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R4" t="n">
-        <v>578.4567702993273</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S4" t="n">
-        <v>578.4567702993273</v>
+        <v>560.6825636487943</v>
       </c>
       <c r="T4" t="n">
-        <v>578.4567702993273</v>
+        <v>560.6825636487943</v>
       </c>
       <c r="U4" t="n">
-        <v>578.4567702993273</v>
+        <v>371.2627786323097</v>
       </c>
       <c r="V4" t="n">
-        <v>578.4567702993273</v>
+        <v>371.2627786323097</v>
       </c>
       <c r="W4" t="n">
-        <v>578.4567702993273</v>
+        <v>181.8429936158251</v>
       </c>
       <c r="X4" t="n">
-        <v>578.4567702993273</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y4" t="n">
-        <v>578.4567702993273</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160.0771049282165</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I5" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J5" t="n">
-        <v>11.74768968709669</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K5" t="n">
-        <v>53.10181779183023</v>
+        <v>80.81213159058984</v>
       </c>
       <c r="L5" t="n">
-        <v>141.3070323458396</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M5" t="n">
-        <v>271.1217663066254</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N5" t="n">
-        <v>407.6508467588559</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O5" t="n">
-        <v>523.2361246735305</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P5" t="n">
-        <v>587.3844843548345</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q5" t="n">
-        <v>587.3844843548345</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R5" t="n">
-        <v>566.6212953489518</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S5" t="n">
-        <v>566.6212953489518</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T5" t="n">
-        <v>456.7359354104562</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U5" t="n">
-        <v>456.7359354104562</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="V5" t="n">
-        <v>308.4065201693364</v>
+        <v>371.2627786323103</v>
       </c>
       <c r="W5" t="n">
-        <v>308.4065201693364</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="X5" t="n">
-        <v>308.4065201693364</v>
+        <v>181.8429936158254</v>
       </c>
       <c r="Y5" t="n">
-        <v>160.0771049282165</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160.0771049282165</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J6" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K6" t="n">
-        <v>12.36141687342361</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L6" t="n">
-        <v>111.9554248488221</v>
+        <v>183.5548280772653</v>
       </c>
       <c r="M6" t="n">
-        <v>247.5338027825024</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N6" t="n">
-        <v>392.911462660324</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O6" t="n">
-        <v>511.1831359408227</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P6" t="n">
-        <v>586.7735145200479</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q6" t="n">
-        <v>587.3844843548345</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R6" t="n">
-        <v>587.3844843548345</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="S6" t="n">
-        <v>456.7359354104562</v>
+        <v>722.9192922843281</v>
       </c>
       <c r="T6" t="n">
-        <v>456.7359354104562</v>
+        <v>533.4995072678432</v>
       </c>
       <c r="U6" t="n">
-        <v>456.7359354104562</v>
+        <v>344.0797222513584</v>
       </c>
       <c r="V6" t="n">
-        <v>456.7359354104562</v>
+        <v>154.6599372348735</v>
       </c>
       <c r="W6" t="n">
-        <v>308.4065201693364</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X6" t="n">
-        <v>308.4065201693364</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y6" t="n">
-        <v>160.0771049282165</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>142.396238631475</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J7" t="n">
-        <v>11.74768968709669</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K7" t="n">
-        <v>11.74768968709669</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L7" t="n">
-        <v>157.1253495649182</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M7" t="n">
-        <v>302.5030094427398</v>
+        <v>295.5529562639638</v>
       </c>
       <c r="N7" t="n">
-        <v>334.1347576642893</v>
+        <v>471.6341805242521</v>
       </c>
       <c r="O7" t="n">
-        <v>479.5124175421108</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P7" t="n">
-        <v>587.3844843548345</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q7" t="n">
-        <v>587.3844843548345</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="R7" t="n">
-        <v>587.3844843548345</v>
+        <v>746.7254979846277</v>
       </c>
       <c r="S7" t="n">
-        <v>587.3844843548345</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="T7" t="n">
-        <v>587.3844843548345</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="U7" t="n">
-        <v>587.3844843548345</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="V7" t="n">
-        <v>587.3844843548345</v>
+        <v>583.2614020227602</v>
       </c>
       <c r="W7" t="n">
-        <v>587.3844843548345</v>
+        <v>393.8416170062753</v>
       </c>
       <c r="X7" t="n">
-        <v>439.0550691137147</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.7256538725949</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C8" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D8" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E8" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678495</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058933</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644752</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985578</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020261</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201467</v>
+        <v>589.7227393823972</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201467</v>
+        <v>400.3029543659126</v>
       </c>
       <c r="U8" t="n">
-        <v>738.6222485201467</v>
+        <v>210.8831693494279</v>
       </c>
       <c r="V8" t="n">
-        <v>583.2614020227597</v>
+        <v>204.4218319897902</v>
       </c>
       <c r="W8" t="n">
-        <v>583.2614020227597</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="X8" t="n">
-        <v>393.841617006275</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y8" t="n">
-        <v>393.841617006275</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="C9" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="D9" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E9" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F9" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G9" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H9" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476344</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017057</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="R9" t="n">
-        <v>722.9192922843275</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="S9" t="n">
-        <v>571.6362168389238</v>
+        <v>598.8192732198754</v>
       </c>
       <c r="T9" t="n">
-        <v>382.2164318224391</v>
+        <v>531.3807981838257</v>
       </c>
       <c r="U9" t="n">
-        <v>192.7966468059543</v>
+        <v>531.3807981838257</v>
       </c>
       <c r="V9" t="n">
-        <v>166.133934959413</v>
+        <v>341.9610131673411</v>
       </c>
       <c r="W9" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="X9" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="Y9" t="n">
-        <v>166.133934959413</v>
+        <v>152.5412281508565</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L10" t="n">
-        <v>118.7527324484195</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M10" t="n">
-        <v>304.4030637430762</v>
+        <v>373.5399563830972</v>
       </c>
       <c r="N10" t="n">
-        <v>490.0533950377329</v>
+        <v>559.1902876777538</v>
       </c>
       <c r="O10" t="n">
-        <v>652.791598474283</v>
+        <v>721.9284911143038</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846268</v>
       </c>
       <c r="R10" t="n">
-        <v>746.7254979846272</v>
+        <v>612.5614882768588</v>
       </c>
       <c r="S10" t="n">
-        <v>583.2614020227597</v>
+        <v>423.1417032603741</v>
       </c>
       <c r="T10" t="n">
-        <v>393.841617006275</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="U10" t="n">
-        <v>204.4218319897903</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="V10" t="n">
-        <v>15.00204697330559</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897902</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330559</v>
+        <v>204.4218319897902</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5056,37 +5056,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3121.960685029207</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V11" t="n">
-        <v>3121.960685029207</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>2769.192029759092</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X11" t="n">
-        <v>2395.726271498012</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y11" t="n">
-        <v>2005.586939522201</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>880.2242361621292</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="C13" t="n">
-        <v>880.2242361621292</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.6347488791189</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621292</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>880.2242361621292</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X13" t="n">
-        <v>880.2242361621292</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y13" t="n">
-        <v>880.2242361621292</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1636.624422581789</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F14" t="n">
         <v>481.5845665871869</v>
@@ -5281,7 +5281,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5296,7 +5296,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3248.015415198948</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3042.03766758317</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3042.03766758317</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2710.974780239599</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2358.206124969485</v>
       </c>
       <c r="X14" t="n">
-        <v>2023.224262645911</v>
+        <v>1984.740366708405</v>
       </c>
       <c r="Y14" t="n">
-        <v>2023.224262645911</v>
+        <v>1594.601034732593</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>463.6594280995009</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
         <v>66.51211643218342</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621292</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251686</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271513</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836212</v>
+        <v>645.3078929297407</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1908.990616856005</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.605821609171</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X17" t="n">
-        <v>3121.906610713899</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>782.492950298343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>782.492950298343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5676,16 +5676,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.594608541191</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V19" t="n">
-        <v>1071.910120335304</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W19" t="n">
-        <v>782.492950298343</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X19" t="n">
-        <v>782.492950298343</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y19" t="n">
-        <v>782.492950298343</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2185.045504370169</v>
+        <v>1811.579746109088</v>
       </c>
       <c r="C20" t="n">
-        <v>1816.082987429757</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D20" t="n">
-        <v>1457.817288823007</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E20" t="n">
-        <v>1072.029036224763</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F20" t="n">
-        <v>661.0431314351551</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G20" t="n">
-        <v>245.9706812801516</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H20" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V20" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W20" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X20" t="n">
-        <v>2961.784676410103</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y20" t="n">
-        <v>2571.645344434291</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218343</v>
+        <v>531.3099827059882</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218343</v>
+        <v>531.3099827059882</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1933432936524</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V22" t="n">
-        <v>880.2242361621296</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W22" t="n">
-        <v>590.8070661251691</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X22" t="n">
-        <v>362.8175152271517</v>
+        <v>933.7510266797581</v>
       </c>
       <c r="Y22" t="n">
-        <v>142.0249360836216</v>
+        <v>712.9584475362279</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1506.36381994936</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.401303008948</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D23" t="n">
-        <v>1137.401303008948</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E23" t="n">
-        <v>1137.401303008948</v>
+        <v>585.4931597741522</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -6001,40 +6001,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2656.568750250373</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>2283.102991989294</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y23" t="n">
-        <v>1892.963660013482</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1762.102825034773</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C25" t="n">
-        <v>1762.102825034773</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D25" t="n">
-        <v>1762.102825034773</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>1762.102825034773</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>1762.102825034773</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>1611.040576735003</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>3044.089480193525</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U25" t="n">
-        <v>2754.986613319168</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V25" t="n">
-        <v>2500.302125113281</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W25" t="n">
-        <v>2210.884955076321</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X25" t="n">
-        <v>1982.895404178303</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y25" t="n">
-        <v>1762.102825034773</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038041</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097629</v>
+        <v>1535.524858594925</v>
       </c>
       <c r="D26" t="n">
-        <v>1453.669719097629</v>
+        <v>1177.259159988174</v>
       </c>
       <c r="E26" t="n">
-        <v>1067.881466499385</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F26" t="n">
-        <v>656.8955617097777</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
-        <v>241.8231115547741</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
@@ -6238,40 +6238,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609169</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.605821609169</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339054</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077975</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102163</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218338</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218338</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218338</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218338</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1751.913851851648</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W28" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X28" t="n">
-        <v>468.9531604059532</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>248.1605812624231</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.605821609171</v>
+        <v>2736.172432430963</v>
       </c>
       <c r="W29" t="n">
-        <v>3325.605821609171</v>
+        <v>2383.403777160848</v>
       </c>
       <c r="X29" t="n">
-        <v>3121.906610713899</v>
+        <v>2009.938018899768</v>
       </c>
       <c r="Y29" t="n">
-        <v>2731.767278738087</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1021.570547268603</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C31" t="n">
-        <v>852.6343643406964</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D31" t="n">
-        <v>702.5177249283606</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E31" t="n">
-        <v>554.6046313459675</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7146838480571</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>1424.011591242373</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W31" t="n">
-        <v>1424.011591242373</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X31" t="n">
-        <v>1424.011591242373</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y31" t="n">
-        <v>1203.219012098843</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2249.271807195285</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6706,10 +6706,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>3009.337405520487</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>3009.337405520487</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X32" t="n">
-        <v>2635.871647259407</v>
+        <v>2051.9349176603</v>
       </c>
       <c r="Y32" t="n">
-        <v>2635.871647259407</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>66.5121164321834</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>95.00286517111721</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X34" t="n">
-        <v>452.6479724696239</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y34" t="n">
-        <v>231.8553933260938</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1767.878520285688</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C35" t="n">
-        <v>1767.878520285688</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.942324366272</v>
+        <v>1464.366537431293</v>
       </c>
       <c r="E35" t="n">
-        <v>1190.154071768027</v>
+        <v>1078.578284833049</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>667.5923800434416</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>252.5199298884381</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792694</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W35" t="n">
-        <v>2531.48361052258</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X35" t="n">
-        <v>2158.0178522615</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y35" t="n">
-        <v>1767.878520285688</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>142.0249360836216</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C37" t="n">
-        <v>142.0249360836216</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D37" t="n">
-        <v>142.0249360836216</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
-        <v>142.0249360836216</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>880.2242361621296</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W37" t="n">
-        <v>590.8070661251691</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>362.8175152271517</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y37" t="n">
-        <v>142.0249360836216</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1601.11348746897</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C38" t="n">
-        <v>1232.150970528558</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D38" t="n">
-        <v>1232.150970528558</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G38" t="n">
         <v>406.0926155839475</v>
@@ -7174,28 +7174,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7213,13 +7213,13 @@
         <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X38" t="n">
-        <v>2377.852659508903</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y38" t="n">
-        <v>1987.713327533092</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2405.758056700424</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C40" t="n">
-        <v>2236.821873772517</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D40" t="n">
-        <v>2086.705234360181</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="E40" t="n">
-        <v>1938.792140777788</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="F40" t="n">
-        <v>1791.902193279878</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>1624.199356654597</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>1477.982169872455</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>3325.605821609171</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>3325.605821609171</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>3036.188651572211</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X40" t="n">
-        <v>2808.199100674194</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y40" t="n">
-        <v>2587.406521530664</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1590.514489367197</v>
+        <v>1980.946859214235</v>
       </c>
       <c r="C41" t="n">
-        <v>1221.551972426786</v>
+        <v>1611.984342273824</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
         <v>66.51211643218343</v>
@@ -7411,22 +7411,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7444,19 +7444,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V41" t="n">
-        <v>3093.488074938325</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W41" t="n">
-        <v>2740.71941966821</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.25366140713</v>
+        <v>2367.546699278357</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.114329431319</v>
+        <v>2367.546699278357</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.9108438165264</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>754.9746608886195</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>604.8580214762837</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1105.559308646766</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.559308646766</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X43" t="n">
-        <v>1105.559308646766</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="Y43" t="n">
-        <v>1105.559308646766</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038044</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097632</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.404020490882</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E44" t="n">
-        <v>709.6157678926375</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6298631030299</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339057</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077977</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102166</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>142.0249360836216</v>
+        <v>496.5773008749145</v>
       </c>
       <c r="C46" t="n">
-        <v>142.0249360836216</v>
+        <v>327.6411179470076</v>
       </c>
       <c r="D46" t="n">
-        <v>142.0249360836216</v>
+        <v>327.6411179470076</v>
       </c>
       <c r="E46" t="n">
-        <v>142.0249360836216</v>
+        <v>327.6411179470076</v>
       </c>
       <c r="F46" t="n">
-        <v>142.0249360836216</v>
+        <v>327.6411179470076</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218343</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>880.2242361621296</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W46" t="n">
-        <v>590.8070661251691</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X46" t="n">
-        <v>362.8175152271517</v>
+        <v>899.0183448486844</v>
       </c>
       <c r="Y46" t="n">
-        <v>142.0249360836216</v>
+        <v>678.2257657051542</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.324764167328595</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>22.77491242827323</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>144.4438298277638</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>141.0220468163147</v>
+        <v>153.3759016847017</v>
       </c>
       <c r="N4" t="n">
-        <v>133.2236354305732</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>63.83383738764609</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>26.04487966482516</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.324764167328794</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>22.77491242827334</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,19 +8376,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>21.7289579877603</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>144.4438298277635</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>141.0220468163144</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>18.32877517171229</v>
+        <v>154.1946371899314</v>
       </c>
       <c r="O7" t="n">
-        <v>154.781822354183</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
         <v>171.4142040457083</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>116.4012961287065</v>
+        <v>46.56605103777601</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>235.8877205747715</v>
+        <v>217.5613044873863</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>131.1116955327425</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20.5555571158238</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S2" t="n">
-        <v>162.109711720134</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T2" t="n">
-        <v>84.7422626178568</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>104.3348437827351</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510933</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121493</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.3918175673445</v>
+        <v>198.7123514897339</v>
       </c>
     </row>
     <row r="3">
@@ -22628,25 +22628,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>143.1872988795313</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5989444759296703</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>10.79895936669186</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.2420688160423</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>51.47395949496047</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.7714183521372</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2242511465658</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.7251189095246</v>
+        <v>57.14828643304926</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8689183739243</v>
+        <v>38.3381812437712</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459988</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098464</v>
       </c>
     </row>
     <row r="4">
@@ -22713,22 +22713,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>20.22144097553175</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>59.74987265914029</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,28 +22749,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R4" t="n">
-        <v>135.773191948061</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>207.923953009556</v>
+        <v>19.25466862917651</v>
       </c>
       <c r="T4" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2686611404426</v>
+        <v>98.73949432713056</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027128</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>60.53711821294283</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>218.4267706822989</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.2441370602317</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>318.3921602069877</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>131.1116955327425</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S5" t="n">
-        <v>162.1097117201341</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>105.2978197336812</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1809648714442</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>180.9061373814263</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>161.715381551093</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>239.391817567345</v>
+        <v>221.065401479959</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>25.86237789960711</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.2420688160423</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>101.5977720414757</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>51.47395949496051</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.77141835213727</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>21.88218769163137</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>195.7251189095246</v>
+        <v>7.884010625681242</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8689183739243</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W6" t="n">
-        <v>104.848862072211</v>
+        <v>113.4336718019674</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.83657468859573</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.98585909322867</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>37.90475764369327</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0675620642408</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>154.0171532915746</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>127.6807984793224</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>28.07357741546448</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.838436914954045</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>135.7731919480611</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>207.923953009556</v>
+        <v>44.95080079324737</v>
       </c>
       <c r="T7" t="n">
-        <v>224.0000791711685</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2686611404426</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027099</v>
       </c>
       <c r="X7" t="n">
-        <v>78.86353430032852</v>
+        <v>38.18406822271714</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.73853226338616</v>
+        <v>31.05906618577478</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23035,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>25.918293889887</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871055</v>
       </c>
       <c r="V8" t="n">
-        <v>173.9450204377218</v>
+        <v>321.3555344840936</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510932</v>
       </c>
       <c r="X8" t="n">
-        <v>182.2055135121492</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681384</v>
+        <v>128.6455075063121</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>206.4045024213493</v>
+        <v>45.27499998310549</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459982</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23202,7 +23202,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553084</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>44.95080079324748</v>
+        <v>19.25466862917645</v>
       </c>
       <c r="T10" t="n">
-        <v>36.19408632378023</v>
+        <v>194.7125880985418</v>
       </c>
       <c r="U10" t="n">
-        <v>98.73949432713042</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>64.61205615750814</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027122</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577501</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>42.81248674626124</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>49.38648674473859</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>139.0409798470839</v>
       </c>
       <c r="D13" t="n">
-        <v>42.02872873825365</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>32.37325944205524</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>321.4674883790884</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>64.70498037788431</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>24.9652320558468</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>168.06888189215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>138.782701743402</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>233.6440512519076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>158.5207149607579</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.3464043356743</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>93.80217084441398</v>
+        <v>345.5834682595418</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,10 +24262,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>16.47418244225608</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>27.38138722868902</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>25.35153685378862</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>162.6268089888817</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445291</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>16.1421360569671</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>199.1263452822315</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>168.06888189215</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>69.12041821276456</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>69.34270184147218</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>94.93667516389269</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>145.9730667037135</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.142136056966</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>137.8199670074838</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>164.6662076604603</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>110.4600290656284</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -25213,7 +25213,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>58.19598621064669</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>21.59472895491427</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>229.2695069934074</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>323.3086325560367</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>137.8199670074838</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>83.32522828944155</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>24.39367950488588</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25684,19 +25684,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>97.95568926599657</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>223.0817217597902</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>122.2689250580278</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>181.1251564493155</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,13 +25918,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>197.2854761230475</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>91.26811680410444</v>
+        <v>148.6155320835112</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>447108.5355359084</v>
+        <v>481019.7826985247</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>447108.5355359081</v>
+        <v>481019.7826985249</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481019.7826985248</v>
+        <v>481019.7826985247</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>896961.5047296035</v>
+        <v>896961.5047296034</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>896961.5047296034</v>
+        <v>896961.5047296035</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>896961.5047296037</v>
+        <v>896961.5047296034</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>896961.5047296035</v>
+        <v>896961.5047296037</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>896961.5047296037</v>
+        <v>896961.5047296035</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>896961.5047296035</v>
+        <v>896961.5047296037</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150913.5375162089</v>
+        <v>162397.4547967402</v>
       </c>
       <c r="C2" t="n">
-        <v>150913.5375162088</v>
+        <v>162397.4547967405</v>
       </c>
       <c r="D2" t="n">
         <v>162397.4547967403</v>
       </c>
       <c r="E2" t="n">
+        <v>306897.3890738288</v>
+      </c>
+      <c r="F2" t="n">
+        <v>306897.3890738288</v>
+      </c>
+      <c r="G2" t="n">
+        <v>306897.3890738286</v>
+      </c>
+      <c r="H2" t="n">
         <v>306897.3890738287</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>306897.3890738286</v>
-      </c>
-      <c r="G2" t="n">
-        <v>306897.3890738287</v>
-      </c>
-      <c r="H2" t="n">
-        <v>306897.3890738288</v>
-      </c>
-      <c r="I2" t="n">
-        <v>306897.3890738288</v>
       </c>
       <c r="J2" t="n">
         <v>306897.3890738286</v>
       </c>
       <c r="K2" t="n">
+        <v>306897.3890738287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>306897.3890738287</v>
+      </c>
+      <c r="M2" t="n">
         <v>306897.3890738288</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>306897.3890738286</v>
+      </c>
+      <c r="O2" t="n">
         <v>306897.3890738288</v>
       </c>
-      <c r="M2" t="n">
-        <v>306897.3890738286</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>306897.3890738288</v>
-      </c>
-      <c r="O2" t="n">
-        <v>306897.3890738289</v>
-      </c>
-      <c r="P2" t="n">
-        <v>306897.3890738289</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542655.4349751311</v>
+        <v>591356.9025208451</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.10570385408937e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>43803.80384074452</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336674</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>38421.40650613375</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>3.310606189188547e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10295.60674904868</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678773</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11263.43165881186</v>
+        <v>12034.19304942662</v>
       </c>
       <c r="C4" t="n">
-        <v>11263.43165881186</v>
+        <v>12034.19304942663</v>
       </c>
       <c r="D4" t="n">
         <v>12034.19304942662</v>
@@ -26429,10 +26429,10 @@
         <v>10990.29103211611</v>
       </c>
       <c r="F4" t="n">
+        <v>10990.29103211611</v>
+      </c>
+      <c r="G4" t="n">
         <v>10990.29103211609</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10990.29103211607</v>
       </c>
       <c r="H4" t="n">
         <v>10990.29103211609</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53719.11977902094</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="C5" t="n">
-        <v>53719.1197790209</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26487,22 +26487,22 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-456724.448896755</v>
+        <v>-509483.404609711</v>
       </c>
       <c r="C6" t="n">
-        <v>85930.98607837671</v>
+        <v>81873.49791113399</v>
       </c>
       <c r="D6" t="n">
-        <v>49573.65749495561</v>
+        <v>81873.49791113421</v>
       </c>
       <c r="E6" t="n">
-        <v>-405533.886153348</v>
+        <v>-409010.0754514093</v>
       </c>
       <c r="F6" t="n">
-        <v>221600.7574803192</v>
+        <v>218124.5681822583</v>
       </c>
       <c r="G6" t="n">
-        <v>221600.757480319</v>
+        <v>218124.568182258</v>
       </c>
       <c r="H6" t="n">
-        <v>221600.7574803195</v>
+        <v>218124.5681822583</v>
       </c>
       <c r="I6" t="n">
-        <v>221600.7574803194</v>
+        <v>218124.5681822582</v>
       </c>
       <c r="J6" t="n">
-        <v>183179.3509741856</v>
+        <v>169059.6234537136</v>
       </c>
       <c r="K6" t="n">
-        <v>221600.757480319</v>
+        <v>218124.5681822583</v>
       </c>
       <c r="L6" t="n">
-        <v>211305.1507312707</v>
+        <v>218124.5681822583</v>
       </c>
       <c r="M6" t="n">
-        <v>61144.31561244193</v>
+        <v>57668.1263143809</v>
       </c>
       <c r="N6" t="n">
-        <v>221600.7574803194</v>
+        <v>218124.5681822582</v>
       </c>
       <c r="O6" t="n">
-        <v>221600.7574803195</v>
+        <v>218124.5681822583</v>
       </c>
       <c r="P6" t="n">
-        <v>221600.7574803195</v>
+        <v>218124.5681822583</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572214</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>512.0768631572208</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887091</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26807,22 +26807,22 @@
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
@@ -26831,7 +26831,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>512.0768631572214</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39307775568375</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803935</v>
+        <v>541.3067596803936</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.8461210887091</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>40.67946607761124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359726</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887086</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761112</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>146.8461210887091</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.67946607761124</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359726</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058600454903401</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08264190877946</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I2" t="n">
-        <v>79.36419403766345</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J2" t="n">
-        <v>174.7211403593577</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K2" t="n">
-        <v>261.8616976154187</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L2" t="n">
-        <v>324.8625912871688</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M2" t="n">
-        <v>361.4722271270571</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N2" t="n">
-        <v>367.3212256695514</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8510173961057</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P2" t="n">
-        <v>296.0293186656779</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744498</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R2" t="n">
-        <v>129.3135608253259</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S2" t="n">
-        <v>46.9103578661113</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T2" t="n">
-        <v>9.011523491339643</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1646880363922721</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.101448347168363</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>10.63767219502077</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>37.92267335645461</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J3" t="n">
-        <v>104.0627142383935</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K3" t="n">
-        <v>177.8597534986738</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L3" t="n">
-        <v>200.3731410096125</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M3" t="n">
-        <v>279.0818904206856</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N3" t="n">
-        <v>278.1878331720424</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O3" t="n">
-        <v>262.0625810914131</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P3" t="n">
-        <v>210.3283251711237</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>68.38641580050593</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S3" t="n">
-        <v>20.45891995727199</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T3" t="n">
-        <v>4.439609785297041</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07246370705055023</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9234172942179402</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210019215864964</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I4" t="n">
-        <v>27.76967644793588</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J4" t="n">
-        <v>65.28560270120836</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K4" t="n">
-        <v>107.2843001827752</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>137.2869675421836</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M4" t="n">
-        <v>144.7498582199995</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>141.3080301233691</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O4" t="n">
-        <v>130.5208371863685</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P4" t="n">
-        <v>111.6831243843225</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.32360633674043</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R4" t="n">
-        <v>41.52019942910846</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S4" t="n">
-        <v>16.09264502741628</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>3.945510257113016</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05036821604825134</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.058600454903399</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>21.08264190877944</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>79.36419403766335</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
-        <v>174.7211403593575</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>261.8616976154184</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>324.8625912871684</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>361.4722271270567</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>367.321225669551</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8510173961053</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>296.0293186656776</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744496</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>129.3135608253257</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>46.91035786611125</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.011523491339632</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646880363922719</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.101448347168362</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>10.63767219502076</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>37.92267335645457</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>104.0627142383934</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>138.4613654251943</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
-        <v>239.1543878358323</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>279.0818904206853</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>278.1878331720419</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>262.0625810914128</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>210.3283251711234</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.5989153332807</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>68.38641580050586</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>20.45891995727197</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.439609785297035</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07246370705055015</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9234172942179391</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>8.210019215864955</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>27.76967644793585</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>65.28560270120829</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>107.2843001827751</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>137.2869675421834</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>144.7498582199993</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>141.3080301233689</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
-        <v>130.5208371863684</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>111.6831243843223</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>77.32360633674034</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>41.52019942910842</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>16.09264502741626</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>3.945510257113011</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05036821604825128</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,31 +31515,31 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J8" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528639</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O8" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P8" t="n">
         <v>317.0679923244294</v>
@@ -31551,10 +31551,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U8" t="n">
         <v>0.1763923428061601</v>
@@ -31597,7 +31597,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
         <v>40.6178210959085</v>
@@ -31606,7 +31606,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L9" t="n">
         <v>256.1509851405032</v>
@@ -31615,7 +31615,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O9" t="n">
         <v>280.6872536292673</v>
@@ -31624,19 +31624,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550075</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S9" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O10" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R10" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987485</v>
@@ -33052,10 +33052,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33918,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563574</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34149,7 +34149,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.994981974642</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
         <v>473.099994678169</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K2" t="n">
-        <v>41.77184657043819</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L2" t="n">
-        <v>89.09617631718152</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M2" t="n">
-        <v>131.1259938997843</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N2" t="n">
-        <v>137.9081620729605</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O2" t="n">
-        <v>116.752805974419</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P2" t="n">
-        <v>64.79632291040838</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>40.0183145243148</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L3" t="n">
-        <v>61.81876122973828</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M3" t="n">
-        <v>136.9478564986673</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N3" t="n">
-        <v>146.8461210887091</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4663366469687</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P3" t="n">
-        <v>76.35391775679341</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>85.01480835689235</v>
+        <v>92.63945645062394</v>
       </c>
       <c r="L4" t="n">
-        <v>146.8461210887091</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M4" t="n">
-        <v>146.8461210887091</v>
+        <v>169.4872848053132</v>
       </c>
       <c r="N4" t="n">
-        <v>146.8461210887091</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="O4" t="n">
-        <v>55.89813612217184</v>
+        <v>1.340357307400438</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>41.77184657043784</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>89.09617631718112</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>131.1259938997839</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9081620729601</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7528059744186</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>64.79632291040804</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6199264508352701</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
-        <v>100.6000080559581</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>136.947856498667</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>146.8461210887086</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>119.4663366469684</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>76.35391775679318</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6171412472592124</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L7" t="n">
-        <v>146.8461210887086</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M7" t="n">
-        <v>146.8461210887086</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>31.951260829848</v>
+        <v>177.8598224851397</v>
       </c>
       <c r="O7" t="n">
-        <v>146.8461210887086</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
-        <v>108.9616836492158</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L8" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P8" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065975</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781456</v>
       </c>
       <c r="L9" t="n">
         <v>117.596605360629</v>
@@ -35263,16 +35263,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996321</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848229</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646077</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N10" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O10" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>98.29368706161262</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.233896612727</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_17_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>408073.1573279944</v>
+        <v>454207.5229489245</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12535336.02914634</v>
+        <v>12542588.90892573</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7622616.185043053</v>
+        <v>7718829.19641696</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9171228.953297561</v>
+        <v>9120632.601986563</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165.1725371760943</v>
+        <v>129.3420634549346</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="3">
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714242</v>
+        <v>31.77141835213727</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>138.261311358952</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663197</v>
+        <v>97.57064510279722</v>
       </c>
     </row>
     <row r="4">
@@ -861,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>8.838436914954045</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X4" t="n">
-        <v>165.1725371760943</v>
+        <v>120.5036265399805</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>146.9019614358876</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.1725371760946</v>
+        <v>166.7824266983284</v>
       </c>
     </row>
     <row r="6">
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714238</v>
+        <v>29.29588533250677</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>117.6060761033808</v>
       </c>
       <c r="T6" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>187.52558716632</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V6" t="n">
-        <v>187.52558716632</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W6" t="n">
-        <v>138.2613113589522</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>161.8294550022489</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>187.52558716632</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X7" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.52558716632</v>
+        <v>12.63176717333533</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>153.8072380324135</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368126</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="U8" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V8" t="n">
-        <v>6.396723986041319</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W8" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>138.2613113589524</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714232</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>66.76409028568918</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>50.64898049238303</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845815</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="T10" t="n">
-        <v>29.00708539155826</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>339.9213549172193</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>287.8586719636971</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>28.20584125154398</v>
+        <v>2.452156843436283</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>371.708302185723</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>76.81450234612061</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>81.72898226868486</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>201.6967697615019</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>329.7178095648362</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>282.7954445156095</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>91.08551991617479</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>270.0697021486467</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>131.6288405190999</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>237.2841637048843</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08755831089487287</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2301,7 +2301,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>61.29257748216965</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>206.1807275362177</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>67.91380142175035</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>192.1675620474802</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>172.4456245554197</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>356.5788332184732</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>18.26879610204007</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,16 +2769,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>52.48855624472342</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>128.6259131879034</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>84.36427925043526</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>79.49505480544779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>62.30120386691601</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,10 +3037,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>223.7580339747556</v>
+        <v>44.78573950458507</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>28.20584125154446</v>
+        <v>162.8284616980193</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>151.9554925943639</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>184.1477353216921</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>90.41948680756566</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>173.6076827274352</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>177.606538748304</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>7.885759353426553</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>7.601081015447462</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>330.2893621157971</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>70.43157151396819</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>95.8536160993992</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3915,10 +3915,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.31572829406701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>25.87859906451739</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>188.9524625330061</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>17.41027617551705</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>84.6947366044287</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159059007</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L2" t="n">
-        <v>191.874309407919</v>
+        <v>141.3070323458395</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>271.1217663066255</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>523.2361246735305</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602026</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652789</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652789</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652789</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652789</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652789</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652789</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487943</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="X2" t="n">
-        <v>371.2627786323097</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.8429936158251</v>
+        <v>142.396238631475</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>51.36582106616815</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>150.9598290415666</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>248.144772617289</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546594</v>
+        <v>393.5224324951106</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>511.7941057756093</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017056</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652789</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>722.919292284327</v>
+        <v>555.2921425849988</v>
       </c>
       <c r="S3" t="n">
-        <v>722.919292284327</v>
+        <v>555.2921425849988</v>
       </c>
       <c r="T3" t="n">
-        <v>583.2614020227593</v>
+        <v>406.962727343879</v>
       </c>
       <c r="U3" t="n">
-        <v>393.8416170062748</v>
+        <v>406.962727343879</v>
       </c>
       <c r="V3" t="n">
-        <v>393.8416170062748</v>
+        <v>258.6333121027592</v>
       </c>
       <c r="W3" t="n">
-        <v>204.4218319897901</v>
+        <v>110.3038968616393</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4218319897901</v>
+        <v>110.3038968616393</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594233</v>
+        <v>95.91234996042</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745582</v>
+        <v>241.2900098382415</v>
       </c>
       <c r="M4" t="n">
-        <v>447.3950989318182</v>
+        <v>296.6291645991914</v>
       </c>
       <c r="N4" t="n">
-        <v>633.0454302264748</v>
+        <v>442.006824477013</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608012</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652789</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652789</v>
+        <v>578.4567702993254</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652789</v>
+        <v>578.4567702993254</v>
       </c>
       <c r="S4" t="n">
-        <v>560.6825636487943</v>
+        <v>430.1273550582056</v>
       </c>
       <c r="T4" t="n">
-        <v>560.6825636487943</v>
+        <v>430.1273550582056</v>
       </c>
       <c r="U4" t="n">
-        <v>371.2627786323097</v>
+        <v>430.1273550582056</v>
       </c>
       <c r="V4" t="n">
-        <v>371.2627786323097</v>
+        <v>430.1273550582056</v>
       </c>
       <c r="W4" t="n">
-        <v>181.8429936158251</v>
+        <v>281.7979398170858</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330558</v>
+        <v>160.0771049282165</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330558</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.0020469733056</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0020469733056</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0020469733056</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="E5" t="n">
-        <v>15.0020469733056</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="F5" t="n">
-        <v>15.0020469733056</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="G5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678512</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058984</v>
+        <v>64.08111238184307</v>
       </c>
       <c r="L5" t="n">
-        <v>191.874309407919</v>
+        <v>163.9284927306049</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644761</v>
+        <v>306.6973793432473</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123834</v>
+        <v>456.390224180391</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985586</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020269</v>
+        <v>659.1628932295217</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.10234866528</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R5" t="n">
-        <v>750.10234866528</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="S5" t="n">
-        <v>750.10234866528</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="T5" t="n">
-        <v>560.6825636487952</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="U5" t="n">
-        <v>560.6825636487952</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="V5" t="n">
-        <v>371.2627786323103</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="W5" t="n">
-        <v>181.8429936158254</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="X5" t="n">
-        <v>181.8429936158254</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.0020469733056</v>
+        <v>498.6626091182344</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024242</v>
+        <v>59.33472114872545</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772653</v>
+        <v>167.499352853669</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140248</v>
+        <v>313.0792444295232</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546606</v>
+        <v>456.3384873466073</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476352</v>
+        <v>584.0017498697407</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017066</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.10234866528</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R6" t="n">
-        <v>722.9192922843281</v>
+        <v>637.5379034271451</v>
       </c>
       <c r="S6" t="n">
-        <v>722.9192922843281</v>
+        <v>518.7438871611039</v>
       </c>
       <c r="T6" t="n">
-        <v>533.4995072678432</v>
+        <v>518.7438871611039</v>
       </c>
       <c r="U6" t="n">
-        <v>344.0797222513584</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="V6" t="n">
-        <v>154.6599372348735</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="W6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7151088594234</v>
+        <v>101.3520233773647</v>
       </c>
       <c r="L7" t="n">
-        <v>279.6026869745584</v>
+        <v>266.4666258087099</v>
       </c>
       <c r="M7" t="n">
-        <v>295.5529562639638</v>
+        <v>431.581228240055</v>
       </c>
       <c r="N7" t="n">
-        <v>471.6341805242521</v>
+        <v>508.8972999419389</v>
       </c>
       <c r="O7" t="n">
-        <v>634.3723839608023</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="P7" t="n">
-        <v>750.10234866528</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="Q7" t="n">
-        <v>746.7254979846277</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R7" t="n">
-        <v>746.7254979846277</v>
+        <v>531.5032479422507</v>
       </c>
       <c r="S7" t="n">
-        <v>583.2614020227602</v>
+        <v>363.0361502671715</v>
       </c>
       <c r="T7" t="n">
-        <v>583.2614020227602</v>
+        <v>363.0361502671715</v>
       </c>
       <c r="U7" t="n">
-        <v>583.2614020227602</v>
+        <v>194.5690525920923</v>
       </c>
       <c r="V7" t="n">
-        <v>583.2614020227602</v>
+        <v>194.5690525920923</v>
       </c>
       <c r="W7" t="n">
-        <v>393.8416170062753</v>
+        <v>26.10195491701307</v>
       </c>
       <c r="X7" t="n">
-        <v>204.4218319897905</v>
+        <v>26.10195491701307</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.00204697330558</v>
+        <v>170.362893470693</v>
       </c>
       <c r="C8" t="n">
-        <v>15.00204697330558</v>
+        <v>170.362893470693</v>
       </c>
       <c r="D8" t="n">
-        <v>15.00204697330558</v>
+        <v>170.362893470693</v>
       </c>
       <c r="E8" t="n">
-        <v>15.00204697330558</v>
+        <v>170.362893470693</v>
       </c>
       <c r="F8" t="n">
-        <v>15.00204697330558</v>
+        <v>170.362893470693</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678506</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058933</v>
+        <v>80.81213159058973</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079182</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644752</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985578</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020261</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652791</v>
+        <v>738.6222485201482</v>
       </c>
       <c r="S8" t="n">
-        <v>589.7227393823972</v>
+        <v>738.6222485201482</v>
       </c>
       <c r="T8" t="n">
-        <v>400.3029543659126</v>
+        <v>549.2024635036631</v>
       </c>
       <c r="U8" t="n">
-        <v>210.8831693494279</v>
+        <v>359.782678487178</v>
       </c>
       <c r="V8" t="n">
-        <v>204.4218319897902</v>
+        <v>170.362893470693</v>
       </c>
       <c r="W8" t="n">
-        <v>15.00204697330558</v>
+        <v>170.362893470693</v>
       </c>
       <c r="X8" t="n">
-        <v>15.00204697330558</v>
+        <v>170.362893470693</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.00204697330558</v>
+        <v>170.362893470693</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>152.5412281508565</v>
+        <v>154.6599372348738</v>
       </c>
       <c r="C9" t="n">
-        <v>152.5412281508565</v>
+        <v>154.6599372348738</v>
       </c>
       <c r="D9" t="n">
-        <v>152.5412281508565</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="E9" t="n">
-        <v>152.5412281508565</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="F9" t="n">
-        <v>152.5412281508565</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024199</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772647</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476344</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017057</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652791</v>
+        <v>722.919292284329</v>
       </c>
       <c r="S9" t="n">
-        <v>598.8192732198754</v>
+        <v>722.919292284329</v>
       </c>
       <c r="T9" t="n">
-        <v>531.3807981838257</v>
+        <v>722.919292284329</v>
       </c>
       <c r="U9" t="n">
-        <v>531.3807981838257</v>
+        <v>533.4995072678439</v>
       </c>
       <c r="V9" t="n">
-        <v>341.9610131673411</v>
+        <v>344.0797222513588</v>
       </c>
       <c r="W9" t="n">
-        <v>152.5412281508565</v>
+        <v>154.6599372348738</v>
       </c>
       <c r="X9" t="n">
-        <v>152.5412281508565</v>
+        <v>154.6599372348738</v>
       </c>
       <c r="Y9" t="n">
-        <v>152.5412281508565</v>
+        <v>154.6599372348738</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330558</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330558</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330558</v>
+        <v>221.1461392199749</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330558</v>
+        <v>221.1461392199749</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330558</v>
+        <v>221.1461392199749</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330558</v>
+        <v>221.1461392199749</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330558</v>
+        <v>66.16263332924808</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330558</v>
+        <v>106.7151088594235</v>
       </c>
       <c r="L10" t="n">
-        <v>187.8896250884406</v>
+        <v>279.6026869745586</v>
       </c>
       <c r="M10" t="n">
-        <v>373.5399563830972</v>
+        <v>465.2530182692156</v>
       </c>
       <c r="N10" t="n">
-        <v>559.1902876777538</v>
+        <v>650.9033495638726</v>
       </c>
       <c r="O10" t="n">
-        <v>721.9284911143038</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846268</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R10" t="n">
-        <v>612.5614882768588</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="S10" t="n">
-        <v>423.1417032603741</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="T10" t="n">
-        <v>393.8416170062749</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="U10" t="n">
-        <v>393.8416170062749</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="V10" t="n">
-        <v>393.8416170062749</v>
+        <v>560.6825636487957</v>
       </c>
       <c r="W10" t="n">
-        <v>204.4218319897902</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="X10" t="n">
-        <v>204.4218319897902</v>
+        <v>371.2627786323106</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330558</v>
+        <v>371.2627786323106</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1561.13247157855</v>
+        <v>1767.878520285688</v>
       </c>
       <c r="C11" t="n">
-        <v>1561.13247157855</v>
+        <v>1398.916003345277</v>
       </c>
       <c r="D11" t="n">
-        <v>1202.866772971799</v>
+        <v>1040.650304738526</v>
       </c>
       <c r="E11" t="n">
-        <v>817.078520373555</v>
+        <v>654.862052140282</v>
       </c>
       <c r="F11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5053,10 +5053,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296685</v>
@@ -5065,28 +5065,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066531</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796417</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X11" t="n">
-        <v>1904.487375535337</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y11" t="n">
-        <v>1904.487375535337</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.8928126690271</v>
+        <v>681.6115596545848</v>
       </c>
       <c r="C13" t="n">
-        <v>213.4020639300938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D13" t="n">
-        <v>213.4020639300938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658018</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783662</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.740577577775</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W13" t="n">
-        <v>872.3234075408143</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X13" t="n">
-        <v>644.3338566427969</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y13" t="n">
-        <v>423.5412774992668</v>
+        <v>681.6115596545848</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1594.601034732593</v>
+        <v>1626.299101484275</v>
       </c>
       <c r="C14" t="n">
-        <v>1225.638517792182</v>
+        <v>1626.299101484275</v>
       </c>
       <c r="D14" t="n">
-        <v>867.3728191854311</v>
+        <v>1268.033402877525</v>
       </c>
       <c r="E14" t="n">
-        <v>481.5845665871869</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5290,40 +5290,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3248.015415198948</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3042.03766758317</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>3042.03766758317</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V14" t="n">
-        <v>2710.974780239599</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W14" t="n">
-        <v>2358.206124969485</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X14" t="n">
-        <v>1984.740366708405</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y14" t="n">
-        <v>1594.601034732593</v>
+        <v>2012.898941548397</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>463.6594280995009</v>
+        <v>696.2582702654239</v>
       </c>
       <c r="C16" t="n">
-        <v>463.6594280995009</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D16" t="n">
-        <v>463.6594280995009</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>111.6347488791189</v>
@@ -5466,22 +5466,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088492</v>
+        <v>1723.560437218288</v>
       </c>
       <c r="U16" t="n">
-        <v>1638.191681214136</v>
+        <v>1434.457570343932</v>
       </c>
       <c r="V16" t="n">
-        <v>1383.507193008249</v>
+        <v>1434.457570343932</v>
       </c>
       <c r="W16" t="n">
-        <v>1094.090022971288</v>
+        <v>1145.040400306971</v>
       </c>
       <c r="X16" t="n">
-        <v>866.1004720732708</v>
+        <v>917.050849408954</v>
       </c>
       <c r="Y16" t="n">
-        <v>645.3078929297407</v>
+        <v>696.2582702654239</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2277.953133796417</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C17" t="n">
-        <v>1908.990616856005</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>2961.784676410102</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V17" t="n">
-        <v>2630.721789066531</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W17" t="n">
-        <v>2277.953133796417</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="X17" t="n">
-        <v>2277.953133796417</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y17" t="n">
-        <v>2277.953133796417</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,13 +5609,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218342</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218342</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218342</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>304.7348788872295</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>304.7348788872295</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U19" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V19" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W19" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="X19" t="n">
-        <v>468.9531604059532</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="Y19" t="n">
-        <v>248.1605812624231</v>
+        <v>452.6479724696226</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1811.579746109088</v>
+        <v>1261.532988317206</v>
       </c>
       <c r="C20" t="n">
-        <v>1678.62132134232</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V20" t="n">
-        <v>2961.784676410101</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W20" t="n">
-        <v>2961.784676410101</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X20" t="n">
-        <v>2588.318918149022</v>
+        <v>2038.27216035714</v>
       </c>
       <c r="Y20" t="n">
-        <v>2198.17958617321</v>
+        <v>1648.132828381328</v>
       </c>
     </row>
     <row r="21">
@@ -5807,70 +5807,70 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>531.3099827059882</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C22" t="n">
-        <v>531.3099827059882</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D22" t="n">
-        <v>381.1933432936524</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W22" t="n">
-        <v>1161.740577577775</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X22" t="n">
-        <v>933.7510266797581</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y22" t="n">
-        <v>712.9584475362279</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1698.509627919559</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C23" t="n">
-        <v>1329.547110979147</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D23" t="n">
-        <v>971.2814123723965</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E23" t="n">
-        <v>585.4931597741522</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6001,25 +6001,25 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
         <v>2755.806928794324</v>
@@ -6028,13 +6028,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y23" t="n">
-        <v>1698.509627919559</v>
+        <v>1863.712025032944</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
@@ -6074,7 +6074,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>848.0708164780106</v>
+        <v>600.8444854681028</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>600.8444854681028</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>450.727846055767</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>302.8147524733739</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T25" t="n">
-        <v>1733.185899555685</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U25" t="n">
-        <v>1733.185899555685</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V25" t="n">
-        <v>1478.501411349798</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W25" t="n">
-        <v>1478.501411349798</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.51186045178</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.71928130825</v>
+        <v>782.4929502983425</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1904.487375535336</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C26" t="n">
-        <v>1535.524858594925</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D26" t="n">
-        <v>1177.259159988174</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>817.078520373555</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0926155839475</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
         <v>406.0926155839475</v>
@@ -6226,16 +6226,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410101</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796416</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>1904.487375535336</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y26" t="n">
-        <v>1904.487375535336</v>
+        <v>1792.126722677732</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I27" t="n">
         <v>66.5121164321834</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>231.8553933260938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C28" t="n">
-        <v>231.8553933260938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>231.8553933260938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
         <v>66.5121164321834</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610489</v>
+        <v>1370.992847560834</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046018</v>
+        <v>1370.992847560834</v>
       </c>
       <c r="W28" t="n">
-        <v>680.6375233676413</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="X28" t="n">
-        <v>452.6479724696239</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y28" t="n">
-        <v>231.8553933260938</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1619.798686923957</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C29" t="n">
-        <v>1250.836169983545</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D29" t="n">
-        <v>892.5704713767946</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G29" t="n">
         <v>66.5121164321834</v>
@@ -6463,16 +6463,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6496,19 +6496,19 @@
         <v>3119.628073993392</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267229</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V29" t="n">
-        <v>2736.172432430963</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W29" t="n">
-        <v>2383.403777160848</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X29" t="n">
-        <v>2009.938018899768</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y29" t="n">
-        <v>1619.798686923957</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>463.6594280995014</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C31" t="n">
-        <v>294.7232451715945</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
         <v>66.5121164321834</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V31" t="n">
-        <v>1383.507193008249</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W31" t="n">
-        <v>1094.090022971289</v>
+        <v>907.124184448121</v>
       </c>
       <c r="X31" t="n">
-        <v>866.1004720732712</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="Y31" t="n">
-        <v>645.3078929297411</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1661.795585684488</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C32" t="n">
-        <v>1292.833068744076</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D32" t="n">
-        <v>934.5673701373257</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F32" t="n">
         <v>523.5814653477182</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796416</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>2051.9349176603</v>
+        <v>2026.737265468936</v>
       </c>
       <c r="Y32" t="n">
-        <v>1661.795585684488</v>
+        <v>1636.597933493125</v>
       </c>
     </row>
     <row r="33">
@@ -6782,10 +6782,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>241.8928126690276</v>
+        <v>793.5809963705858</v>
       </c>
       <c r="C34" t="n">
-        <v>241.8928126690276</v>
+        <v>624.6448134426789</v>
       </c>
       <c r="D34" t="n">
-        <v>241.8928126690276</v>
+        <v>474.5281740303432</v>
       </c>
       <c r="E34" t="n">
-        <v>241.8928126690276</v>
+        <v>474.5281740303432</v>
       </c>
       <c r="F34" t="n">
-        <v>95.00286517111721</v>
+        <v>474.5281740303432</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I34" t="n">
         <v>66.5121164321834</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>1416.425065783662</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V34" t="n">
-        <v>1161.740577577775</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W34" t="n">
-        <v>872.3234075408147</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X34" t="n">
-        <v>644.3338566427974</v>
+        <v>1196.022040344356</v>
       </c>
       <c r="Y34" t="n">
-        <v>423.5412774992673</v>
+        <v>975.2294612008255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1822.632236038044</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C35" t="n">
-        <v>1822.632236038044</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D35" t="n">
-        <v>1464.366537431293</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>1078.578284833049</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>667.5923800434416</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>252.5199298884381</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339057</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077977</v>
+        <v>2161.568951662578</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102166</v>
+        <v>1771.429619686766</v>
       </c>
     </row>
     <row r="36">
@@ -7007,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>452.6479724696239</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C37" t="n">
-        <v>452.6479724696239</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124869</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610489</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V37" t="n">
-        <v>970.0546934046018</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W37" t="n">
-        <v>680.6375233676413</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X37" t="n">
-        <v>452.6479724696239</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y37" t="n">
-        <v>452.6479724696239</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1698.50962791956</v>
+        <v>1853.982617026599</v>
       </c>
       <c r="C38" t="n">
-        <v>1329.547110979148</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>971.2814123723979</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>585.4931597741536</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
@@ -7174,28 +7174,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.97538618064</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.50962791956</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y38" t="n">
-        <v>1698.50962791956</v>
+        <v>2240.58245709072</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>241.8928126690276</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C40" t="n">
-        <v>241.8928126690276</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D40" t="n">
-        <v>241.8928126690276</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E40" t="n">
-        <v>241.8928126690276</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658019</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U40" t="n">
-        <v>1416.425065783662</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V40" t="n">
-        <v>1161.740577577775</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W40" t="n">
-        <v>872.3234075408147</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="X40" t="n">
-        <v>644.3338566427974</v>
+        <v>1320.371673073647</v>
       </c>
       <c r="Y40" t="n">
-        <v>423.5412774992673</v>
+        <v>1099.579093930117</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1980.946859214235</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C41" t="n">
-        <v>1611.984342273824</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7444,19 +7444,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883008</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V41" t="n">
-        <v>2741.012457539437</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W41" t="n">
-        <v>2741.012457539437</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.546699278357</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y41" t="n">
-        <v>2367.546699278357</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>848.0708164780106</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1346335501037</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7608,13 +7608,13 @@
         <v>1416.425065783662</v>
       </c>
       <c r="W43" t="n">
-        <v>1127.007895746702</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="X43" t="n">
-        <v>1127.007895746702</v>
+        <v>1188.435514885645</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.71928130825</v>
+        <v>1188.435514885645</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C44" t="n">
-        <v>1617.939223126803</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7669,31 +7669,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609172</v>
+        <v>3299.465822554102</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993394</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.09759726723</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.03470992366</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653545</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392465</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y44" t="n">
-        <v>1617.939223126803</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="45">
@@ -7718,16 +7718,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
         <v>398.4535849031479</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>496.5773008749145</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>327.6411179470076</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>327.6411179470076</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>327.6411179470076</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>327.6411179470076</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U46" t="n">
-        <v>1416.425065783662</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V46" t="n">
-        <v>1416.425065783662</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>1127.007895746702</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>899.0183448486844</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>678.2257657051542</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>144.4438298277635</v>
       </c>
       <c r="M4" t="n">
-        <v>153.3759016847017</v>
+        <v>50.07406184977739</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>133.2236354305729</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>154.781822354183</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265839</v>
+        <v>19.00792621918457</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>159.4104580922942</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>155.7185244657182</v>
       </c>
       <c r="N7" t="n">
-        <v>154.1946371899314</v>
+        <v>59.35931990206596</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>22.00204076308472</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402855</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457086</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711115</v>
+        <v>163.8604018711119</v>
       </c>
       <c r="O10" t="n">
-        <v>163.0416663658825</v>
+        <v>98.86065188594108</v>
       </c>
       <c r="P10" t="n">
-        <v>46.56605103777601</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.5613044873863</v>
+        <v>253.391778208546</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368145</v>
+        <v>20.55555711582394</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510933</v>
+        <v>202.3948476287044</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121493</v>
+        <v>222.8849795897604</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897339</v>
+        <v>239.391817567345</v>
       </c>
     </row>
     <row r="3">
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>48.7788117555066</v>
+        <v>51.47395949496051</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>151.2242511465658</v>
       </c>
       <c r="T3" t="n">
-        <v>57.14828643304926</v>
+        <v>48.87899782081595</v>
       </c>
       <c r="U3" t="n">
-        <v>38.3381812437712</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>85.95446606071664</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459988</v>
+        <v>104.848862072211</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098464</v>
+        <v>108.1120506745071</v>
       </c>
     </row>
     <row r="4">
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553089</v>
+        <v>28.07357741546448</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845843</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917651</v>
+        <v>61.07783192084736</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713056</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027128</v>
+        <v>139.6768772478824</v>
       </c>
       <c r="X4" t="n">
-        <v>60.53711821294283</v>
+        <v>105.2060288490566</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>71.73853226338616</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>215.9514149651522</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>259.9740843058239</v>
       </c>
       <c r="G5" t="n">
-        <v>413.097833230058</v>
+        <v>246.3871906880662</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973038</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368134</v>
+        <v>15.8745106541563</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>25.91829388988677</v>
+        <v>213.75811620057</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V5" t="n">
-        <v>140.2266713038149</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>161.715381551093</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>221.065401479959</v>
+        <v>219.4555119577252</v>
       </c>
     </row>
     <row r="6">
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550657</v>
+        <v>50.10118934773676</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,19 +22913,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>32.87757866439617</v>
       </c>
       <c r="T6" t="n">
-        <v>7.884010625681242</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U6" t="n">
-        <v>38.33818124377092</v>
+        <v>59.08386854792602</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310526</v>
+        <v>66.01816045109686</v>
       </c>
       <c r="W6" t="n">
-        <v>113.4336718019674</v>
+        <v>84.9125564625912</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553084</v>
+        <v>25.71029132565417</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6.039384816041505</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>44.95080079324737</v>
+        <v>40.55898555847378</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>223.8572548864558</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>119.4844111533732</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>98.99741117027099</v>
+        <v>119.7405716382626</v>
       </c>
       <c r="X7" t="n">
-        <v>38.18406822271714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>31.05906618577478</v>
+        <v>205.9528861787595</v>
       </c>
     </row>
     <row r="8">
@@ -23035,7 +23035,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.097833230058</v>
+        <v>259.2905951976446</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368137</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>25.918293889887</v>
+        <v>25.91829388988657</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871055</v>
+        <v>63.64367339871012</v>
       </c>
       <c r="V8" t="n">
-        <v>321.3555344840936</v>
+        <v>140.2266713038147</v>
       </c>
       <c r="W8" t="n">
-        <v>161.7153815510932</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23105,7 +23105,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>9.183754205686313</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550658</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714239</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>128.6455075063121</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377072</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310549</v>
+        <v>45.27499998310506</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459982</v>
+        <v>64.1693959945994</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23196,13 +23196,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>75.05823927848361</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553086</v>
+        <v>23.43375830553079</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845744</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>19.25466862917645</v>
+        <v>19.254668629176</v>
       </c>
       <c r="T10" t="n">
-        <v>194.7125880985418</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
@@ -23241,13 +23241,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>98.99741117027122</v>
+        <v>98.99741117027079</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.05906618577501</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.81248674626124</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>119.0173737780143</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>139.0409798470839</v>
+        <v>164.7946642551915</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>10.22206788653881</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.37325944205524</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>64.70498037788431</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983812</v>
@@ -23706,13 +23706,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>17.85217951466731</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>24.9652320558468</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>86.93565616285957</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>74.94028834285344</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>16.14213605696614</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>233.6440512519076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>132.4469369735847</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696645</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.3464043356743</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>345.5834682595418</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>180.0572111198358</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>77.5072466011809</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>27.38138722868902</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>210.2882171080608</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>25.35153685378862</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>128.1651665445291</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>233.7232819608895</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24736,10 +24736,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>199.1263452822315</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>301.8736594056184</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>69.12041821276456</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,10 +24888,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>224.221794469675</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>145.9730667037135</v>
+        <v>324.945361173884</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>137.8199670074838</v>
+        <v>3.197346561008942</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>230.7783490691167</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>110.4600290656284</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>58.19598621064669</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>69.34270184147189</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>191.6652090435723</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>229.2695069934074</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>171.9462208285107</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>137.8199670074838</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>24.39367950488588</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>315.8063671420854</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>83.97836408253809</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>122.2689250580278</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>83.30916272365845</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>197.2854761230475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>148.6155320835112</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481019.7826985247</v>
+        <v>447108.535535908</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481019.7826985249</v>
+        <v>463667.2743842094</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481019.7826985247</v>
+        <v>481019.782698525</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896961.5047296035</v>
+        <v>896961.5047296034</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896961.5047296037</v>
+        <v>896961.5047296034</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>896961.5047296035</v>
+        <v>896961.5047296034</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>896961.5047296033</v>
+        <v>896961.5047296035</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>896961.5047296034</v>
+        <v>896961.5047296035</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>896961.5047296037</v>
+        <v>896961.5047296035</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>896961.5047296035</v>
+        <v>896961.5047296037</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>896961.5047296037</v>
+        <v>896961.5047296035</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>896961.5047296037</v>
+        <v>896961.5047296034</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162397.4547967402</v>
+        <v>150913.5375162088</v>
       </c>
       <c r="C2" t="n">
+        <v>156563.0300299674</v>
+      </c>
+      <c r="D2" t="n">
         <v>162397.4547967405</v>
       </c>
-      <c r="D2" t="n">
-        <v>162397.4547967403</v>
-      </c>
       <c r="E2" t="n">
-        <v>306897.3890738288</v>
+        <v>306897.3890738286</v>
       </c>
       <c r="F2" t="n">
         <v>306897.3890738288</v>
       </c>
       <c r="G2" t="n">
-        <v>306897.3890738286</v>
+        <v>306897.3890738287</v>
       </c>
       <c r="H2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738288</v>
       </c>
       <c r="I2" t="n">
         <v>306897.3890738286</v>
       </c>
       <c r="J2" t="n">
+        <v>306897.3890738288</v>
+      </c>
+      <c r="K2" t="n">
+        <v>306897.3890738289</v>
+      </c>
+      <c r="L2" t="n">
         <v>306897.3890738286</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>306897.3890738287</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>306897.3890738288</v>
+      </c>
+      <c r="O2" t="n">
         <v>306897.3890738287</v>
       </c>
-      <c r="M2" t="n">
-        <v>306897.3890738288</v>
-      </c>
-      <c r="N2" t="n">
-        <v>306897.3890738286</v>
-      </c>
-      <c r="O2" t="n">
-        <v>306897.3890738288</v>
-      </c>
       <c r="P2" t="n">
-        <v>306897.3890738288</v>
+        <v>306897.3890738289</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208451</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>3.10570385408937e-10</v>
+        <v>23320.45473340651</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.84085679112</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336676</v>
+        <v>627134.6436336673</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>38421.40650613405</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136623</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004512</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678775</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12034.19304942662</v>
+        <v>11263.43165881186</v>
       </c>
       <c r="C4" t="n">
+        <v>11518.70215387087</v>
+      </c>
+      <c r="D4" t="n">
         <v>12034.19304942663</v>
       </c>
-      <c r="D4" t="n">
-        <v>12034.19304942662</v>
-      </c>
       <c r="E4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="F4" t="n">
         <v>10990.29103211611</v>
       </c>
       <c r="G4" t="n">
-        <v>10990.29103211609</v>
+        <v>10990.29103211612</v>
       </c>
       <c r="H4" t="n">
-        <v>10990.29103211609</v>
+        <v>10990.29103211611</v>
       </c>
       <c r="I4" t="n">
         <v>10990.29103211609</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161355</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161358</v>
+        <v>55335.34872138573</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26502,7 +26502,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26511,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-509483.404609711</v>
+        <v>-457938.6447796583</v>
       </c>
       <c r="C6" t="n">
-        <v>81873.49791113399</v>
+        <v>65205.71460792121</v>
       </c>
       <c r="D6" t="n">
-        <v>81873.49791113421</v>
+        <v>70491.22413645253</v>
       </c>
       <c r="E6" t="n">
-        <v>-409010.0754514093</v>
+        <v>-405881.5050831542</v>
       </c>
       <c r="F6" t="n">
-        <v>218124.5681822583</v>
+        <v>221253.1385505133</v>
       </c>
       <c r="G6" t="n">
-        <v>218124.568182258</v>
+        <v>221253.1385505132</v>
       </c>
       <c r="H6" t="n">
-        <v>218124.5681822583</v>
+        <v>221253.1385505131</v>
       </c>
       <c r="I6" t="n">
-        <v>218124.5681822582</v>
+        <v>221253.138550513</v>
       </c>
       <c r="J6" t="n">
-        <v>169059.6234537136</v>
+        <v>182831.7320443792</v>
       </c>
       <c r="K6" t="n">
-        <v>218124.5681822583</v>
+        <v>216122.1714483768</v>
       </c>
       <c r="L6" t="n">
-        <v>218124.5681822583</v>
+        <v>216003.2313245086</v>
       </c>
       <c r="M6" t="n">
-        <v>57668.1263143809</v>
+        <v>60796.69668263594</v>
       </c>
       <c r="N6" t="n">
-        <v>218124.5681822582</v>
+        <v>221253.1385505132</v>
       </c>
       <c r="O6" t="n">
-        <v>218124.5681822583</v>
+        <v>221253.1385505132</v>
       </c>
       <c r="P6" t="n">
-        <v>218124.5681822583</v>
+        <v>221253.1385505134</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129046</v>
+        <v>530.6136320241912</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>187.52558716632</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>18.53676886697042</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.85630888871367</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803936</v>
+        <v>541.3067596803934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.7431604679918</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.8758682359723</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.7431604679918</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359731</v>
+        <v>643.8758682359723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.7431604679918</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359728</v>
+        <v>643.8758682359723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>240.3006435944652</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954485</v>
+        <v>21.8458165184633</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043118</v>
+        <v>82.23711376326689</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655543</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>336.6223547162113</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470024</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>359.4067440913204</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244294</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151092</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974683</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>48.60847493367341</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924579</v>
+        <v>9.337733363561393</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.6178210959085</v>
+        <v>39.29544350367832</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>184.298132926742</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405032</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975329</v>
+        <v>289.1844294531842</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829654</v>
+        <v>276.0480180601859</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292673</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>217.9420406704645</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550075</v>
+        <v>70.86194882013636</v>
       </c>
       <c r="S6" t="n">
-        <v>21.9129264128882</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820369</v>
+        <v>4.600320073870109</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07508683472040445</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.956844254469853</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620016</v>
+        <v>8.507215280650154</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>28.77491630714795</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114193</v>
+        <v>67.64888879101861</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784858</v>
+        <v>80.12265843565288</v>
       </c>
       <c r="R7" t="n">
-        <v>44.4710217664791</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181394</v>
+        <v>4.088334541825734</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L8" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P9" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S9" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I10" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33918,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34155,7 +34155,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563564</v>
       </c>
       <c r="S41" t="n">
         <v>99.83230779806951</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>98.16660967244687</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062394</v>
+        <v>85.01480835689223</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880151</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="M4" t="n">
-        <v>169.4872848053132</v>
+        <v>55.89813612217161</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788333</v>
+        <v>51.25102853128971</v>
       </c>
       <c r="L5" t="n">
-        <v>112.184017997302</v>
+        <v>100.8559397462241</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197546</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504115</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405812</v>
+        <v>129.3085326696337</v>
       </c>
       <c r="P5" t="n">
-        <v>85.8349965691599</v>
+        <v>75.5123451577706</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065975</v>
+        <v>8.047286428072653</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781469</v>
+        <v>46.45669395238301</v>
       </c>
       <c r="L6" t="n">
-        <v>117.596605360629</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755146</v>
+        <v>147.0503955311659</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>144.7063059768526</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848229</v>
+        <v>128.9527904274075</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855694</v>
+        <v>83.96763325613429</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764996</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>92.63945645062401</v>
+        <v>88.89841337525095</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6339172880152</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061152</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="N7" t="n">
-        <v>177.8598224851397</v>
+        <v>78.097042123115</v>
       </c>
       <c r="O7" t="n">
-        <v>164.382023673283</v>
+        <v>159.8307139912877</v>
       </c>
       <c r="P7" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788327</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O8" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.7991677406597</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781456</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L9" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N9" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P9" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>92.63945645062408</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M10" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="N10" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="O10" t="n">
-        <v>164.382023673283</v>
+        <v>100.2010091933417</v>
       </c>
       <c r="P10" t="n">
-        <v>28.45844197068212</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
